--- a/IT002-OOP/Đề thi thực hành/A Phủ Warrior/Test0&1.xlsx
+++ b/IT002-OOP/Đề thi thực hành/A Phủ Warrior/Test0&1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10720"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haime\OneDrive\Máy tính\Quan trọng\Giảng dạy\IT002-OOP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vutuanhai/Desktop/Quan trọng/CourseMaterials/IT002-OOP/Đề thi thực hành/A Phủ Warrior/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC1ADB6D-9393-4AD8-88E1-2D1693AB3D4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1870F4D-DE97-6646-BE06-169FE761B541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8C18A594-1105-4E36-B836-DCC7354A95EC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16800" xr2:uid="{8C18A594-1105-4E36-B836-DCC7354A95EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_tính1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="45">
   <si>
     <t>HP A Phủ</t>
   </si>
@@ -180,12 +180,6 @@
   </si>
   <si>
     <t>Tay không (-3 HP)</t>
-  </si>
-  <si>
-    <t>2*1.5 = 4</t>
-  </si>
-  <si>
-    <t>2*1.5 = 5</t>
   </si>
   <si>
     <t>A Phu chien thang, hp con lai: 94, so vu khi con lai: 1</t>
@@ -199,7 +193,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -207,13 +201,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -320,21 +314,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -353,12 +350,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -374,9 +368,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Chủ đề Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -414,7 +408,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -520,7 +514,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -662,7 +656,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -672,17 +666,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9815FFFA-6ABC-42FA-8FF2-CBCB82939494}">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7:I10"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="7" width="17.375" customWidth="1"/>
-    <col min="8" max="9" width="15.875" customWidth="1"/>
+    <col min="2" max="7" width="17.33203125" customWidth="1"/>
+    <col min="8" max="9" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -704,246 +698,246 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="2"/>
+      <c r="I1" s="7"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>30</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="3">
-        <v>3</v>
-      </c>
-      <c r="H2" s="4" t="s">
+      <c r="G2" s="2">
+        <v>3</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="5"/>
+      <c r="I2" s="6"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>27</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="3">
-        <v>3</v>
-      </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
+      <c r="G3" s="2">
+        <v>3</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
         <v>24</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="3">
-        <v>3</v>
-      </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
+      <c r="G4" s="2">
+        <v>3</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>21</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="3">
-        <v>3</v>
-      </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-    </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+      <c r="G5" s="2">
+        <v>3</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>18</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <v>0</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="2"/>
+      <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>18</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="3">
-        <v>3</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="D7" s="2">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="8"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>12</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="3">
-        <v>3</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="D8" s="2">
+        <v>3</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="H8" s="9"/>
-      <c r="I8" s="10"/>
+      <c r="G8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="11"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>6</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="3">
-        <v>3</v>
-      </c>
-      <c r="E9" s="3" t="s">
+      <c r="D9" s="2">
+        <v>3</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="10"/>
+      <c r="G9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="10"/>
+      <c r="I9" s="11"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>0</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="12"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="13"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
+      <c r="A11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
@@ -965,166 +959,166 @@
       <c r="G14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I14" s="2"/>
+      <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>1</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>100</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="3">
-        <v>3</v>
-      </c>
-      <c r="H15" s="4" t="s">
+      <c r="G15" s="2">
+        <v>3</v>
+      </c>
+      <c r="H15" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I15" s="5"/>
+      <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <v>2</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <v>97</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G16" s="3">
-        <v>3</v>
-      </c>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
+      <c r="G16" s="2">
+        <v>3</v>
+      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>3</v>
-      </c>
-      <c r="B17" s="3">
+      <c r="A17" s="2">
+        <v>3</v>
+      </c>
+      <c r="B17" s="2">
         <v>94</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="2">
         <v>0</v>
       </c>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
+      <c r="A18" s="2">
         <v>4</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <v>94</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="2">
         <v>0</v>
       </c>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-    </row>
-    <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
         <v>5</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <v>94</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="2">
         <v>0</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H19" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="I19" s="2"/>
+      <c r="I19" s="7"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="4" t="s">
+      <c r="A20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I20" s="4"/>
+      <c r="I20" s="5"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B21" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
+      <c r="B21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1151,10 +1145,10 @@
       <selection sqref="A1:I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="7" width="17.375" customWidth="1"/>
-    <col min="8" max="9" width="15.875" customWidth="1"/>
+    <col min="2" max="7" width="17.33203125" customWidth="1"/>
+    <col min="8" max="9" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
